--- a/Data/Processed/Angiosperms/missing_powo_ipni/Smilacaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Smilacaceae.xlsx
@@ -817,7 +817,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. Icon. 10: t. 114. 1831 [1827 publ. 29 Oct 1831] </t>
+          <t>Fl. Flumin. Icon. 10: t. 114. 1831 [1827 publ. 29 Oct 1831]</t>
         </is>
       </c>
       <c r="J79" t="b">
